--- a/init-data/hzero-report/hzero_report/hzero-report.xlsx
+++ b/init-data/hzero-report/hzero_report/hzero-report.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="136">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2103,7 +2103,10 @@
     <t>#report_code</t>
   </si>
   <si>
-    <t>report_name</t>
+    <t>report_name:zh_CN</t>
+  </si>
+  <si>
+    <t>report_name:en_US</t>
   </si>
   <si>
     <t>dataset_id</t>
@@ -2124,6 +2127,15 @@
     <t>order_seq</t>
   </si>
   <si>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>export_type</t>
+  </si>
+  <si>
     <t>hrpt_report-8</t>
   </si>
   <si>
@@ -2202,7 +2214,10 @@
     <t>#template_code</t>
   </si>
   <si>
-    <t>template_name</t>
+    <t>template_name:zh_CN</t>
+  </si>
+  <si>
+    <t>template_name:en_US</t>
   </si>
   <si>
     <t>报表模板明细</t>
@@ -2246,7 +2261,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="72">
+  <fonts count="74">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2552,6 +2567,11 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
@@ -2583,6 +2603,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2773,7 +2798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2894,6 +2919,8 @@
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3622,7 +3649,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3681,14 +3708,14 @@
       <c r="I7" t="s">
         <v>85</v>
       </c>
-      <c r="J7" t="s" s="67">
+      <c r="J7" t="s">
         <v>86</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="67">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
         <v>60</v>
-      </c>
-      <c r="L7" t="s">
-        <v>87</v>
       </c>
       <c r="M7" t="s">
         <v>88</v>
@@ -3700,27 +3727,36 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" t="s">
         <v>62</v>
       </c>
-      <c r="Q7" t="s">
-        <v>91</v>
-      </c>
       <c r="R7" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7" t="s">
         <v>63</v>
       </c>
-      <c r="S7" t="s" s="68">
-        <v>64</v>
+      <c r="T7" t="s" s="68">
+        <v>93</v>
+      </c>
+      <c r="U7" t="s" s="69">
+        <v>94</v>
+      </c>
+      <c r="V7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
         <v>66</v>
@@ -3728,40 +3764,46 @@
       <c r="I8" t="s">
         <v>67</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8">
         <f>数据集!$E$8</f>
       </c>
-      <c r="K8" t="s">
-        <v>95</v>
-      </c>
       <c r="L8" t="s">
-        <v>96</v>
-      </c>
-      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
         <v>71</v>
       </c>
-      <c r="O8" t="s">
-        <v>97</v>
-      </c>
       <c r="P8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" t="s">
-        <v>97</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="R8" t="s">
+        <v>101</v>
+      </c>
+      <c r="T8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H9" t="s">
         <v>74</v>
@@ -3769,28 +3811,34 @@
       <c r="I9" t="s">
         <v>75</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9">
         <f>数据集!$E$9</f>
       </c>
-      <c r="K9" t="s">
-        <v>101</v>
-      </c>
       <c r="L9" t="s">
-        <v>102</v>
-      </c>
-      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
         <v>72</v>
       </c>
-      <c r="O9" t="s">
-        <v>103</v>
-      </c>
       <c r="P9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" t="s">
         <v>71</v>
       </c>
-      <c r="Q9" t="s">
-        <v>104</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="R9" t="s">
+        <v>108</v>
+      </c>
+      <c r="T9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3802,28 +3850,28 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" t="s" s="69">
-        <v>106</v>
-      </c>
-      <c r="E11" t="s" s="70">
-        <v>107</v>
-      </c>
-      <c r="F11" t="s" s="71">
-        <v>108</v>
-      </c>
-      <c r="G11" t="s" s="72">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s" s="70">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s" s="71">
+        <v>111</v>
+      </c>
+      <c r="F11" t="s" s="72">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s" s="73">
         <v>64</v>
       </c>
-      <c r="H11" t="s" s="73">
-        <v>109</v>
+      <c r="H11" t="s" s="74">
+        <v>113</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
         <v>63</v>
@@ -3831,7 +3879,7 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F12">
         <f>报表定义!$E$8</f>
@@ -3840,12 +3888,12 @@
         <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F13">
         <f>报表定义!$E$9</f>
@@ -3854,7 +3902,7 @@
         <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3864,7 +3912,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3903,31 +3951,37 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" t="s" s="74">
-        <v>115</v>
-      </c>
-      <c r="E7" t="s" s="75">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="D7" t="s" s="75">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s" s="76">
+        <v>120</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" t="s" s="76">
-        <v>117</v>
+        <v>89</v>
+      </c>
+      <c r="G7" t="s" s="77">
+        <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" t="s">
         <v>62</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>63</v>
       </c>
-      <c r="K7" t="s" s="77">
-        <v>64</v>
+      <c r="L7" t="s" s="78">
+        <v>93</v>
+      </c>
+      <c r="M7" t="s" s="79">
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -3938,31 +3992,31 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" t="s" s="78">
-        <v>120</v>
-      </c>
-      <c r="E9" t="s" s="79">
-        <v>121</v>
-      </c>
-      <c r="F9" t="s" s="80">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="D9" t="s" s="80">
+        <v>125</v>
+      </c>
+      <c r="E9" t="s" s="81">
+        <v>126</v>
+      </c>
+      <c r="F9" t="s" s="82">
+        <v>127</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" t="s" s="81">
-        <v>125</v>
+        <v>129</v>
+      </c>
+      <c r="I9" t="s" s="83">
+        <v>130</v>
       </c>
       <c r="J9" t="s">
         <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4011,25 +4065,25 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s" s="84">
+        <v>133</v>
+      </c>
+      <c r="E7" t="s" s="85">
+        <v>134</v>
+      </c>
+      <c r="F7" t="s" s="86">
+        <v>112</v>
+      </c>
+      <c r="G7" t="s" s="87">
         <v>127</v>
       </c>
-      <c r="D7" t="s" s="82">
-        <v>128</v>
-      </c>
-      <c r="E7" t="s" s="83">
-        <v>129</v>
-      </c>
-      <c r="F7" t="s" s="84">
-        <v>108</v>
-      </c>
-      <c r="G7" t="s" s="85">
-        <v>122</v>
-      </c>
       <c r="H7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
